--- a/Jan_2024_signal.xlsx
+++ b/Jan_2024_signal.xlsx
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>118.83</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29.412</v>
+        <v>27.778</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>1.51</v>
@@ -1154,7 +1154,7 @@
       <c r="I13" s="5" t="n"/>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>08/12</t>
+          <t>11/01</t>
         </is>
       </c>
       <c r="K13" s="5" t="n"/>
@@ -1531,24 +1531,24 @@
       <c r="Y20" s="5" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8" t="n">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="n">
         <v>220.57</v>
       </c>
-      <c r="E21" s="8" t="n">
-        <v>57.143</v>
+      <c r="E21" s="5" t="n">
+        <v>53.333</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>1.795</v>
@@ -1558,7 +1558,7 @@
           <t>03/11</t>
         </is>
       </c>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
@@ -1566,7 +1566,7 @@
       <c r="I21" s="5" t="n"/>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t>24/08</t>
+          <t>10/01</t>
         </is>
       </c>
       <c r="K21" s="5" t="n"/>
@@ -2385,20 +2385,20 @@
         </is>
       </c>
       <c r="C38" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>235.18</v>
+        <v>255.34</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>25</v>
+        <v>33.333</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2.602</v>
+        <v>2.739</v>
       </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>12/10</t>
+          <t>26/01</t>
         </is>
       </c>
       <c r="H38" s="6" t="inlineStr">
@@ -2484,27 +2484,27 @@
       <c r="Y39" s="5" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="8" t="inlineStr">
         <is>
           <t>ECL</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>119.41</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>44.444</v>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v>241.33</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>50</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3.809</v>
+        <v>6.677</v>
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>29/07</t>
+          <t>24/01</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
@@ -2521,9 +2521,9 @@
           <t>04/12</t>
         </is>
       </c>
-      <c r="J40" s="6" t="inlineStr">
-        <is>
-          <t>09/08</t>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>30/01</t>
         </is>
       </c>
       <c r="K40" s="5" t="n"/>
@@ -2871,20 +2871,24 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>129.99</v>
+        <v>167.69</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>5.49</v>
+        <v>6.792</v>
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
           <t>31/11</t>
         </is>
       </c>
-      <c r="H47" s="5" t="n"/>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>22/01</t>
+        </is>
+      </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
           <t>18/12</t>
@@ -2922,23 +2926,23 @@
         <v>7</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>189.88</v>
+        <v>170.68</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>71.429</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11.888</v>
+        <v>5.658</v>
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>12/10</t>
+          <t>23/01</t>
         </is>
       </c>
       <c r="H48" s="5" t="n"/>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>13/10</t>
+          <t>24/01</t>
         </is>
       </c>
       <c r="J48" s="5" t="n"/>
@@ -2990,7 +2994,7 @@
       <c r="I49" s="5" t="n"/>
       <c r="J49" s="6" t="inlineStr">
         <is>
-          <t>03/10</t>
+          <t>08/01</t>
         </is>
       </c>
       <c r="K49" s="5" t="n"/>
@@ -3041,7 +3045,7 @@
       <c r="I50" s="5" t="n"/>
       <c r="J50" s="6" t="inlineStr">
         <is>
-          <t>03/10</t>
+          <t>08/01</t>
         </is>
       </c>
       <c r="K50" s="5" t="n"/>
@@ -3072,18 +3076,22 @@
         </is>
       </c>
       <c r="C51" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>181.91</v>
+        <v>122.08</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>26.667</v>
+        <v>25</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="G51" s="5" t="n"/>
+        <v>1.428</v>
+      </c>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>23/01</t>
+        </is>
+      </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
           <t>22/09</t>
@@ -3141,7 +3149,7 @@
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>29/11</t>
+          <t>08/01</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
@@ -3149,7 +3157,11 @@
           <t>28/11</t>
         </is>
       </c>
-      <c r="J52" s="5" t="n"/>
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>09/01</t>
+        </is>
+      </c>
       <c r="K52" s="5" t="n"/>
       <c r="L52" s="5" t="n"/>
       <c r="M52" s="5" t="n"/>
@@ -3296,40 +3308,48 @@
       <c r="Y55" s="5" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="8" t="inlineStr">
         <is>
           <t>HWM</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C56" s="5" t="n">
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="D56" s="5" t="n">
-        <v>316.97</v>
-      </c>
-      <c r="E56" s="5" t="n">
-        <v>36.364</v>
+      <c r="D56" s="8" t="n">
+        <v>394.67</v>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v>45.455</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2.261</v>
+        <v>2.57</v>
       </c>
       <c r="G56" s="6" t="inlineStr">
         <is>
           <t>03/11</t>
         </is>
       </c>
-      <c r="H56" s="5" t="n"/>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>25/01</t>
+        </is>
+      </c>
       <c r="I56" s="5" t="inlineStr">
         <is>
           <t>29/11</t>
         </is>
       </c>
-      <c r="J56" s="5" t="n"/>
+      <c r="J56" s="8" t="inlineStr">
+        <is>
+          <t>30/01</t>
+        </is>
+      </c>
       <c r="K56" s="5" t="n"/>
       <c r="L56" s="5" t="n"/>
       <c r="M56" s="5" t="n"/>
@@ -3590,24 +3610,24 @@
       <c r="Y61" s="5" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="inlineStr">
+      <c r="A62" s="5" t="inlineStr">
         <is>
           <t>IR</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C62" s="8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D62" s="8" t="n">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D62" s="5" t="n">
         <v>297.68</v>
       </c>
-      <c r="E62" s="8" t="n">
-        <v>35.294</v>
+      <c r="E62" s="5" t="n">
+        <v>33.333</v>
       </c>
       <c r="F62" s="5" t="n">
         <v>1.928</v>
@@ -3617,7 +3637,7 @@
           <t>03/11</t>
         </is>
       </c>
-      <c r="H62" s="8" t="inlineStr">
+      <c r="H62" s="5" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
@@ -3629,7 +3649,7 @@
       </c>
       <c r="J62" s="5" t="inlineStr">
         <is>
-          <t>29/09</t>
+          <t>10/01</t>
         </is>
       </c>
       <c r="K62" s="5" t="n"/>
@@ -3649,36 +3669,40 @@
       <c r="Y62" s="5" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="inlineStr">
+      <c r="A63" s="5" t="inlineStr">
         <is>
           <t>IRM</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C63" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D63" s="8" t="n">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="n">
         <v>215.37</v>
       </c>
-      <c r="E63" s="8" t="n">
-        <v>54.545</v>
+      <c r="E63" s="5" t="n">
+        <v>50</v>
       </c>
       <c r="F63" s="5" t="n">
         <v>2.427</v>
       </c>
       <c r="G63" s="5" t="n"/>
-      <c r="H63" s="8" t="inlineStr">
+      <c r="H63" s="5" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
       </c>
       <c r="I63" s="5" t="n"/>
-      <c r="J63" s="5" t="n"/>
+      <c r="J63" s="5" t="inlineStr">
+        <is>
+          <t>23/01</t>
+        </is>
+      </c>
       <c r="K63" s="5" t="n"/>
       <c r="L63" s="5" t="n"/>
       <c r="M63" s="5" t="n"/>
@@ -3768,7 +3792,11 @@
         </is>
       </c>
       <c r="I65" s="5" t="n"/>
-      <c r="J65" s="5" t="n"/>
+      <c r="J65" s="5" t="inlineStr">
+        <is>
+          <t>29/01</t>
+        </is>
+      </c>
       <c r="K65" s="5" t="n"/>
       <c r="L65" s="5" t="n"/>
       <c r="M65" s="5" t="n"/>
@@ -4001,7 +4029,11 @@
         <v>1.747</v>
       </c>
       <c r="G70" s="5" t="n"/>
-      <c r="H70" s="5" t="n"/>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>26/01</t>
+        </is>
+      </c>
       <c r="I70" s="5" t="n"/>
       <c r="J70" s="5" t="n"/>
       <c r="K70" s="5" t="n"/>
@@ -4032,29 +4064,37 @@
         </is>
       </c>
       <c r="C71" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>157.17</v>
+        <v>116.67</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>50</v>
+        <v>44.444</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>1.901</v>
+        <v>1.543</v>
       </c>
       <c r="G71" s="6" t="inlineStr">
         <is>
           <t>01/09</t>
         </is>
       </c>
-      <c r="H71" s="5" t="n"/>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t>10/01</t>
+        </is>
+      </c>
       <c r="I71" s="6" t="inlineStr">
         <is>
           <t>06/09</t>
         </is>
       </c>
-      <c r="J71" s="5" t="n"/>
+      <c r="J71" s="5" t="inlineStr">
+        <is>
+          <t>24/01</t>
+        </is>
+      </c>
       <c r="K71" s="5" t="n"/>
       <c r="L71" s="5" t="n"/>
       <c r="M71" s="5" t="n"/>
@@ -4337,18 +4377,18 @@
         <v>12</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>235.18</v>
+        <v>198.34</v>
       </c>
       <c r="E77" s="5" t="n">
         <v>41.667</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>2.571</v>
+        <v>2.063</v>
       </c>
       <c r="G77" s="5" t="n"/>
       <c r="H77" s="5" t="inlineStr">
         <is>
-          <t>19/12</t>
+          <t>19/01</t>
         </is>
       </c>
       <c r="I77" s="5" t="n"/>
@@ -4636,21 +4676,21 @@
         </is>
       </c>
       <c r="C83" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>123.335</v>
+        <v>113.105</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>31.25</v>
+        <v>29.412</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>1.24</v>
+        <v>1.216</v>
       </c>
       <c r="G83" s="5" t="n"/>
       <c r="H83" s="5" t="inlineStr">
         <is>
-          <t>26/07</t>
+          <t>11/01</t>
         </is>
       </c>
       <c r="I83" s="5" t="inlineStr">
@@ -4660,7 +4700,7 @@
       </c>
       <c r="J83" s="6" t="inlineStr">
         <is>
-          <t>01/08</t>
+          <t>25/01</t>
         </is>
       </c>
       <c r="K83" s="5" t="n"/>
@@ -5009,13 +5049,13 @@
         </is>
       </c>
       <c r="C90" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>131.94</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>33.333</v>
+        <v>30.769</v>
       </c>
       <c r="F90" s="5" t="n">
         <v>1.553</v>
@@ -5027,7 +5067,11 @@
         </is>
       </c>
       <c r="I90" s="5" t="n"/>
-      <c r="J90" s="5" t="n"/>
+      <c r="J90" s="5" t="inlineStr">
+        <is>
+          <t>08/01</t>
+        </is>
+      </c>
       <c r="K90" s="5" t="n"/>
       <c r="L90" s="5" t="n"/>
       <c r="M90" s="5" t="n"/>
@@ -5111,20 +5155,20 @@
         </is>
       </c>
       <c r="C92" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>142.49</v>
+        <v>112.19</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>50</v>
+        <v>45.455</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>3.614</v>
+        <v>2.323</v>
       </c>
       <c r="G92" s="5" t="inlineStr">
         <is>
-          <t>30/08</t>
+          <t>26/01</t>
         </is>
       </c>
       <c r="H92" s="6" t="inlineStr">
@@ -5189,7 +5233,7 @@
       <c r="H93" s="5" t="n"/>
       <c r="I93" s="5" t="inlineStr">
         <is>
-          <t>13/10</t>
+          <t>10/01</t>
         </is>
       </c>
       <c r="J93" s="5" t="n"/>
@@ -5484,13 +5528,13 @@
         </is>
       </c>
       <c r="C99" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>246.85</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>25</v>
+        <v>22.222</v>
       </c>
       <c r="F99" s="5" t="n">
         <v>2.629</v>
@@ -5506,7 +5550,11 @@
         </is>
       </c>
       <c r="I99" s="5" t="n"/>
-      <c r="J99" s="5" t="n"/>
+      <c r="J99" s="5" t="inlineStr">
+        <is>
+          <t>18/01</t>
+        </is>
+      </c>
       <c r="K99" s="5" t="n"/>
       <c r="L99" s="5" t="n"/>
       <c r="M99" s="5" t="n"/>
@@ -6182,26 +6230,26 @@
         </is>
       </c>
       <c r="C113" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D113" s="5" t="n">
-        <v>387.62</v>
+        <v>381.22</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>41.667</v>
+        <v>38.462</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>3.387</v>
+        <v>3.258</v>
       </c>
       <c r="G113" s="5" t="inlineStr">
         <is>
-          <t>29/09</t>
+          <t>13/01</t>
         </is>
       </c>
       <c r="H113" s="5" t="n"/>
       <c r="I113" s="6" t="inlineStr">
         <is>
-          <t>04/10</t>
+          <t>25/01</t>
         </is>
       </c>
       <c r="J113" s="5" t="n"/>
@@ -6222,30 +6270,30 @@
       <c r="Y113" s="5" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="8" t="inlineStr">
+      <c r="A114" s="5" t="inlineStr">
         <is>
           <t>WAT</t>
         </is>
       </c>
-      <c r="B114" s="8" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C114" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D114" s="8" t="n">
+      <c r="B114" s="5" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D114" s="5" t="n">
         <v>348.77</v>
       </c>
-      <c r="E114" s="8" t="n">
-        <v>50</v>
+      <c r="E114" s="5" t="n">
+        <v>46.154</v>
       </c>
       <c r="F114" s="5" t="n">
         <v>2.704</v>
       </c>
       <c r="G114" s="5" t="n"/>
-      <c r="H114" s="9" t="inlineStr">
+      <c r="H114" s="6" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
@@ -6253,7 +6301,7 @@
       <c r="I114" s="5" t="n"/>
       <c r="J114" s="6" t="inlineStr">
         <is>
-          <t>03/08</t>
+          <t>19/01</t>
         </is>
       </c>
       <c r="K114" s="5" t="n"/>
@@ -6382,13 +6430,13 @@
         </is>
       </c>
       <c r="C117" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>234.82</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>54.545</v>
+        <v>50</v>
       </c>
       <c r="F117" s="5" t="n">
         <v>1.736</v>
@@ -6402,7 +6450,7 @@
       <c r="I117" s="5" t="n"/>
       <c r="J117" s="5" t="inlineStr">
         <is>
-          <t>29/08</t>
+          <t>16/01</t>
         </is>
       </c>
       <c r="K117" s="5" t="n"/>
@@ -6487,15 +6535,19 @@
         <v>12</v>
       </c>
       <c r="D119" s="5" t="n">
-        <v>429.66</v>
+        <v>449.26</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>41.667</v>
+        <v>50</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>3.425</v>
-      </c>
-      <c r="G119" s="5" t="n"/>
+        <v>3.535</v>
+      </c>
+      <c r="G119" s="5" t="inlineStr">
+        <is>
+          <t>26/01</t>
+        </is>
+      </c>
       <c r="H119" s="5" t="inlineStr">
         <is>
           <t>06/12</t>
@@ -6593,17 +6645,17 @@
         <v>8</v>
       </c>
       <c r="D121" s="5" t="n">
-        <v>103.4</v>
+        <v>88.8</v>
       </c>
       <c r="E121" s="5" t="n">
         <v>37.5</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>1.976</v>
+        <v>1.737</v>
       </c>
       <c r="G121" s="5" t="inlineStr">
         <is>
-          <t>18/12</t>
+          <t>24/01</t>
         </is>
       </c>
       <c r="H121" s="5" t="inlineStr">
@@ -6688,13 +6740,13 @@
         </is>
       </c>
       <c r="C123" s="5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>441.51</v>
       </c>
       <c r="E123" s="5" t="n">
-        <v>41.667</v>
+        <v>38.462</v>
       </c>
       <c r="F123" s="5" t="n">
         <v>2.222</v>
@@ -6708,7 +6760,7 @@
       <c r="I123" s="5" t="n"/>
       <c r="J123" s="6" t="inlineStr">
         <is>
-          <t>04/11</t>
+          <t>08/01</t>
         </is>
       </c>
       <c r="K123" s="5" t="n"/>
